--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -898,14 +898,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 53218-2023</t>
+          <t>A 38182-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45229</v>
+        <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -955,14 +955,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 38182-2024</t>
+          <t>A 22256-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45545.47888888889</v>
+        <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>11.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1012,14 +1012,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 46993-2025</t>
+          <t>A 57394-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45929.54670138889</v>
+        <v>45629.6907175926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 46998-2025</t>
+          <t>A 46993-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45929.54851851852</v>
+        <v>45929.54670138889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1126,14 +1126,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4574-2025</t>
+          <t>A 46998-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45687</v>
+        <v>45929.54851851852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1145,13 +1145,8 @@
           <t>BJUV</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1188,14 +1183,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 63548-2025</t>
+          <t>A 59471-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46013</v>
+        <v>45638</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1208,7 +1203,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1245,14 +1240,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 14674-2024</t>
+          <t>A 20239-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45397</v>
+        <v>45772</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1265,7 +1260,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1302,14 +1297,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 6679-2026</t>
+          <t>A 18118-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46056.60961805555</v>
+        <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1317,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1359,14 +1354,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 59877-2025</t>
+          <t>A 57391-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45993</v>
+        <v>45629.68717592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1379,7 +1374,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1416,14 +1411,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 6684-2026</t>
+          <t>A 53218-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46056.61989583333</v>
+        <v>45229</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1436,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1473,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 22256-2022</t>
+          <t>A 54557-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44712</v>
+        <v>45233.6346875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1493,7 +1488,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>11.2</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1530,14 +1525,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 20239-2025</t>
+          <t>A 325-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45772</v>
+        <v>45295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1550,7 +1545,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1587,14 +1582,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 57391-2024</t>
+          <t>A 63548-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45629.68717592592</v>
+        <v>46013</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1607,7 +1602,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1644,14 +1639,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 20054-2024</t>
+          <t>A 6679-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45434</v>
+        <v>46056.60961805555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1664,7 +1659,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.3</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1701,14 +1696,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 57394-2024</t>
+          <t>A 6684-2026</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45629.6907175926</v>
+        <v>46056.61989583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1721,7 +1716,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1758,14 +1753,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 26708-2023</t>
+          <t>A 59877-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45093</v>
+        <v>45993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1778,7 +1773,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1815,14 +1810,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 54557-2023</t>
+          <t>A 20054-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45233.6346875</v>
+        <v>45434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1835,7 +1830,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>7.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1872,14 +1867,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 18118-2022</t>
+          <t>A 26708-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44684</v>
+        <v>45093</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1892,7 +1887,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1929,14 +1924,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 325-2024</t>
+          <t>A 14674-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45295</v>
+        <v>45397</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1949,7 +1944,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1986,14 +1981,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59471-2024</t>
+          <t>A 4574-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45638</v>
+        <v>45687</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,8 +2000,13 @@
           <t>BJUV</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45629.6907175926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45929.54670138889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45929.54851851852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45638</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45772</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45629.68717592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45229</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45233.6346875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>45295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>46013</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>46056.60961805555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>46056.61989583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45093</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45397</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45687</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45629.6907175926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45929.54670138889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45929.54851851852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45638</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45772</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45629.68717592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45229</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45233.6346875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>45295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>46013</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>46056.60961805555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>46056.61989583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45093</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45397</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45687</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 22256-2022</t>
+          <t>A 4574-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44712</v>
+        <v>45687</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -974,8 +974,13 @@
           <t>BJUV</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>11.2</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1012,14 +1017,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 57394-2024</t>
+          <t>A 57391-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45629.6907175926</v>
+        <v>45629.68717592592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1032,7 +1037,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1076,7 +1081,7 @@
         <v>45929.54670138889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1126,14 +1131,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 46998-2025</t>
+          <t>A 26708-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45929.54851851852</v>
+        <v>45093</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1146,7 +1151,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1183,14 +1188,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 59471-2024</t>
+          <t>A 46998-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45638</v>
+        <v>45929.54851851852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1203,7 +1208,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1240,14 +1245,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 20239-2025</t>
+          <t>A 14674-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45772</v>
+        <v>45397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1260,7 +1265,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1297,14 +1302,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 18118-2022</t>
+          <t>A 22256-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44684</v>
+        <v>44712</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1317,7 +1322,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>11.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1354,14 +1359,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 57391-2024</t>
+          <t>A 20239-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45629.68717592592</v>
+        <v>45772</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1374,7 +1379,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1411,14 +1416,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 53218-2023</t>
+          <t>A 20054-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45229</v>
+        <v>45434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1436,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>7.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1468,14 +1473,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 54557-2023</t>
+          <t>A 57394-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45233.6346875</v>
+        <v>45629.6907175926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1488,7 +1493,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1525,14 +1530,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 325-2024</t>
+          <t>A 53218-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45295</v>
+        <v>45229</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1545,7 +1550,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1582,14 +1587,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 63548-2025</t>
+          <t>A 54557-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46013</v>
+        <v>45233.6346875</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1602,7 +1607,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1639,14 +1644,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 6679-2026</t>
+          <t>A 63548-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46056.60961805555</v>
+        <v>46013</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1659,7 +1664,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1696,14 +1701,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 6684-2026</t>
+          <t>A 6679-2026</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46056.61989583333</v>
+        <v>46056.60961805555</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1716,7 +1721,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1753,14 +1758,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 59877-2025</t>
+          <t>A 6684-2026</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45993</v>
+        <v>46056.61989583333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1773,7 +1778,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1810,14 +1815,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 20054-2024</t>
+          <t>A 59877-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45434</v>
+        <v>45993</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1830,7 +1835,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1867,14 +1872,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 26708-2023</t>
+          <t>A 18118-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45093</v>
+        <v>44684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1887,7 +1892,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1924,14 +1929,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 14674-2024</t>
+          <t>A 325-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45397</v>
+        <v>45295</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1944,7 +1949,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1981,14 +1986,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4574-2025</t>
+          <t>A 59471-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45687</v>
+        <v>45638</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2000,13 +2005,8 @@
           <t>BJUV</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 4574-2025</t>
+          <t>A 22256-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45687</v>
+        <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -974,13 +974,8 @@
           <t>BJUV</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>11.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1017,14 +1012,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 57391-2024</t>
+          <t>A 46993-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45629.68717592592</v>
+        <v>45929.54670138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1037,7 +1032,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1074,14 +1069,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 46993-2025</t>
+          <t>A 46998-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45929.54670138889</v>
+        <v>45929.54851851852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1094,7 +1089,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1131,14 +1126,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 26708-2023</t>
+          <t>A 57394-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45093</v>
+        <v>45629.6907175926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1151,7 +1146,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1188,14 +1183,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 46998-2025</t>
+          <t>A 59471-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45929.54851851852</v>
+        <v>45638</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1208,7 +1203,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1245,14 +1240,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 14674-2024</t>
+          <t>A 20239-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45397</v>
+        <v>45772</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1265,7 +1260,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1302,14 +1297,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 22256-2022</t>
+          <t>A 18118-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44712</v>
+        <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1317,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>11.2</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1359,14 +1354,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 20239-2025</t>
+          <t>A 57391-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45772</v>
+        <v>45629.68717592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1379,7 +1374,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1416,14 +1411,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 20054-2024</t>
+          <t>A 53218-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45434</v>
+        <v>45229</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1436,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1473,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 57394-2024</t>
+          <t>A 54557-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45629.6907175926</v>
+        <v>45233.6346875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1493,7 +1488,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1530,14 +1525,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 53218-2023</t>
+          <t>A 325-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45229</v>
+        <v>45295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1550,7 +1545,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1587,14 +1582,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 54557-2023</t>
+          <t>A 63548-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45233.6346875</v>
+        <v>46013</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1607,7 +1602,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1644,14 +1639,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 63548-2025</t>
+          <t>A 6679-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46013</v>
+        <v>46056.60961805555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1664,7 +1659,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1701,14 +1696,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 6679-2026</t>
+          <t>A 6684-2026</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46056.60961805555</v>
+        <v>46056.61989583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1721,7 +1716,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1758,14 +1753,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 6684-2026</t>
+          <t>A 59877-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46056.61989583333</v>
+        <v>45993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1778,7 +1773,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1815,14 +1810,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59877-2025</t>
+          <t>A 20054-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45993</v>
+        <v>45434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1835,7 +1830,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1872,14 +1867,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 18118-2022</t>
+          <t>A 26708-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44684</v>
+        <v>45093</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1892,7 +1887,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1929,14 +1924,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 325-2024</t>
+          <t>A 14674-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45295</v>
+        <v>45397</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1949,7 +1944,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1986,14 +1981,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59471-2024</t>
+          <t>A 4574-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45638</v>
+        <v>45687</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,8 +2000,13 @@
           <t>BJUV</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 22256-2022</t>
+          <t>A 14674-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44712</v>
+        <v>45397</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>11.2</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1012,14 +1012,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 46993-2025</t>
+          <t>A 22256-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45929.54670138889</v>
+        <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>11.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 46998-2025</t>
+          <t>A 4574-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45929.54851851852</v>
+        <v>45687</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1088,8 +1088,13 @@
           <t>BJUV</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1126,14 +1131,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 57394-2024</t>
+          <t>A 20239-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45629.6907175926</v>
+        <v>45772</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1146,7 +1151,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1183,14 +1188,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 59471-2024</t>
+          <t>A 20054-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45638</v>
+        <v>45434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1203,7 +1208,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1240,14 +1245,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 20239-2025</t>
+          <t>A 57394-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45772</v>
+        <v>45629.6907175926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1260,7 +1265,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1304,7 +1309,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,7 +1366,7 @@
         <v>45629.68717592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1411,14 +1416,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 53218-2023</t>
+          <t>A 54557-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45229</v>
+        <v>45233.6346875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1436,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1468,14 +1473,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 54557-2023</t>
+          <t>A 26708-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45233.6346875</v>
+        <v>45093</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1488,7 +1493,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1532,7 +1537,7 @@
         <v>45295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1582,14 +1587,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 63548-2025</t>
+          <t>A 59471-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46013</v>
+        <v>45638</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1602,7 +1607,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1639,14 +1644,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 6679-2026</t>
+          <t>A 46993-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46056.60961805555</v>
+        <v>45929.54670138889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1659,7 +1664,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1696,14 +1701,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 6684-2026</t>
+          <t>A 46998-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46056.61989583333</v>
+        <v>45929.54851851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1716,7 +1721,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1753,14 +1758,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 59877-2025</t>
+          <t>A 53218-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45993</v>
+        <v>45229</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1773,7 +1778,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1810,14 +1815,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 20054-2024</t>
+          <t>A 63548-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45434</v>
+        <v>46013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1830,7 +1835,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1867,14 +1872,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 26708-2023</t>
+          <t>A 6679-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45093</v>
+        <v>46056.60961805555</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1887,7 +1892,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1924,14 +1929,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 14674-2024</t>
+          <t>A 6684-2026</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45397</v>
+        <v>46056.61989583333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1944,7 +1949,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1981,14 +1986,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4574-2025</t>
+          <t>A 59877-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45687</v>
+        <v>45993</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2000,13 +2005,8 @@
           <t>BJUV</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 14674-2024</t>
+          <t>A 59877-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45397</v>
+        <v>45993</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1069,14 +1069,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4574-2025</t>
+          <t>A 57394-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45687</v>
+        <v>45629.6907175926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1088,13 +1088,8 @@
           <t>BJUV</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1131,14 +1126,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 20239-2025</t>
+          <t>A 46993-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45772</v>
+        <v>45929.54670138889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1151,7 +1146,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1188,14 +1183,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 20054-2024</t>
+          <t>A 46998-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45434</v>
+        <v>45929.54851851852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1208,7 +1203,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1245,14 +1240,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 57394-2024</t>
+          <t>A 59471-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45629.6907175926</v>
+        <v>45638</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1265,7 +1260,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1302,14 +1297,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 18118-2022</t>
+          <t>A 20239-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44684</v>
+        <v>45772</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1317,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1359,14 +1354,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 57391-2024</t>
+          <t>A 18118-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45629.68717592592</v>
+        <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1379,7 +1374,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1416,14 +1411,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 54557-2023</t>
+          <t>A 57391-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45233.6346875</v>
+        <v>45629.68717592592</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1436,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1473,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 26708-2023</t>
+          <t>A 54557-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45093</v>
+        <v>45233.6346875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1493,7 +1488,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1537,7 +1532,7 @@
         <v>45295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1587,14 +1582,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 59471-2024</t>
+          <t>A 53218-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45638</v>
+        <v>45229</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1607,7 +1602,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1644,14 +1639,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 46993-2025</t>
+          <t>A 20054-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45929.54670138889</v>
+        <v>45434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1664,7 +1659,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>7.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1701,14 +1696,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 46998-2025</t>
+          <t>A 26708-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45929.54851851852</v>
+        <v>45093</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1721,7 +1716,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1758,14 +1753,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 53218-2023</t>
+          <t>A 63548-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45229</v>
+        <v>46013</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1778,7 +1773,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1815,14 +1810,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 63548-2025</t>
+          <t>A 6679-2026</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46013</v>
+        <v>46056.60961805555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1835,7 +1830,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1872,14 +1867,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 6679-2026</t>
+          <t>A 6684-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46056.60961805555</v>
+        <v>46056.61989583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1892,7 +1887,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1929,14 +1924,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 6684-2026</t>
+          <t>A 14674-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46056.61989583333</v>
+        <v>45397</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1949,7 +1944,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1986,14 +1981,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59877-2025</t>
+          <t>A 4574-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45993</v>
+        <v>45687</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,8 +2000,13 @@
           <t>BJUV</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 59877-2025</t>
+          <t>A 22256-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45993</v>
+        <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>11.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1012,14 +1012,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 22256-2022</t>
+          <t>A 46993-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44712</v>
+        <v>45929.54670138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 57394-2024</t>
+          <t>A 46998-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45629.6907175926</v>
+        <v>45929.54851851852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1126,14 +1126,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 46993-2025</t>
+          <t>A 57394-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45929.54670138889</v>
+        <v>45629.6907175926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1183,14 +1183,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 46998-2025</t>
+          <t>A 63548-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45929.54851851852</v>
+        <v>46013</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1240,14 +1240,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59471-2024</t>
+          <t>A 6679-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45638</v>
+        <v>46056.60961805555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 20239-2025</t>
+          <t>A 6684-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45772</v>
+        <v>46056.61989583333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 18118-2022</t>
+          <t>A 59877-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44684</v>
+        <v>45993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 57391-2024</t>
+          <t>A 59471-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45629.68717592592</v>
+        <v>45638</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1468,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 54557-2023</t>
+          <t>A 53218-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45233.6346875</v>
+        <v>45229</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 325-2024</t>
+          <t>A 20239-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45295</v>
+        <v>45772</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 53218-2023</t>
+          <t>A 18118-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45229</v>
+        <v>44684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 20054-2024</t>
+          <t>A 57391-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45434</v>
+        <v>45629.68717592592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1696,14 +1696,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 26708-2023</t>
+          <t>A 54557-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45093</v>
+        <v>45233.6346875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1753,14 +1753,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 63548-2025</t>
+          <t>A 325-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46013</v>
+        <v>45295</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 6679-2026</t>
+          <t>A 20054-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46056.60961805555</v>
+        <v>45434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1867,14 +1867,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 6684-2026</t>
+          <t>A 26708-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46056.61989583333</v>
+        <v>45093</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>45397</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45687</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45929.54670138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45929.54851851852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45629.6907175926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 63548-2025</t>
+          <t>A 53218-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46013</v>
+        <v>45229</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 6679-2026</t>
+          <t>A 59471-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46056.60961805555</v>
+        <v>45638</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 6684-2026</t>
+          <t>A 20239-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46056.61989583333</v>
+        <v>45772</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1354,14 +1354,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 59877-2025</t>
+          <t>A 63548-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45993</v>
+        <v>46013</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1411,14 +1411,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 59471-2024</t>
+          <t>A 6679-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45638</v>
+        <v>46056.60961805555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 53218-2023</t>
+          <t>A 6684-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45229</v>
+        <v>46056.61989583333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 20239-2025</t>
+          <t>A 18118-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45772</v>
+        <v>44684</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18118-2022</t>
+          <t>A 57391-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44684</v>
+        <v>45629.68717592592</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1639,14 +1639,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 57391-2024</t>
+          <t>A 59877-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45629.68717592592</v>
+        <v>45993</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>45233.6346875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45295</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45093</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45397</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45687</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 22256-2022</t>
+          <t>A 46993-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44712</v>
+        <v>45929.54670138889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1012,14 +1012,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 46993-2025</t>
+          <t>A 46998-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45929.54670138889</v>
+        <v>45929.54851851852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 46998-2025</t>
+          <t>A 4574-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45929.54851851852</v>
+        <v>45687</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1088,8 +1088,13 @@
           <t>BJUV</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1126,14 +1131,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 57394-2024</t>
+          <t>A 53218-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45629.6907175926</v>
+        <v>45229</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1146,7 +1151,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1183,14 +1188,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 53218-2023</t>
+          <t>A 57391-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45229</v>
+        <v>45629.68717592592</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1203,7 +1208,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1240,14 +1245,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59471-2024</t>
+          <t>A 26708-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45638</v>
+        <v>45093</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1260,7 +1265,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1297,14 +1302,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 20239-2025</t>
+          <t>A 6679-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45772</v>
+        <v>46056.60961805555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1317,7 +1322,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1354,14 +1359,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 63548-2025</t>
+          <t>A 6684-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46013</v>
+        <v>46056.61989583333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1374,7 +1379,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1411,14 +1416,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 6679-2026</t>
+          <t>A 59877-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46056.60961805555</v>
+        <v>45993</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1436,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1468,14 +1473,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 6684-2026</t>
+          <t>A 14674-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46056.61989583333</v>
+        <v>45397</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1488,7 +1493,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1525,14 +1530,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 18118-2022</t>
+          <t>A 22256-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44684</v>
+        <v>44712</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1545,7 +1550,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>11.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1582,14 +1587,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 57391-2024</t>
+          <t>A 63548-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45629.68717592592</v>
+        <v>46013</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1602,7 +1607,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1639,14 +1644,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 59877-2025</t>
+          <t>A 20239-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45993</v>
+        <v>45772</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1659,7 +1664,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1696,14 +1701,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 54557-2023</t>
+          <t>A 20054-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45233.6346875</v>
+        <v>45434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1716,7 +1721,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>7.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1753,14 +1758,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 325-2024</t>
+          <t>A 57394-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45295</v>
+        <v>45629.6907175926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1773,7 +1778,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1810,14 +1815,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 20054-2024</t>
+          <t>A 54557-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45434</v>
+        <v>45233.6346875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1830,7 +1835,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.3</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1867,14 +1872,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 26708-2023</t>
+          <t>A 18118-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45093</v>
+        <v>44684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1887,7 +1892,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1924,14 +1929,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 14674-2024</t>
+          <t>A 325-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45397</v>
+        <v>45295</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1944,7 +1949,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1981,14 +1986,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4574-2025</t>
+          <t>A 59471-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45687</v>
+        <v>45638</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2000,13 +2005,8 @@
           <t>BJUV</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -575,7 +575,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45545.47888888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 46993-2025</t>
+          <t>A 22256-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45929.54670138889</v>
+        <v>44712</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>11.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1012,14 +1012,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 46998-2025</t>
+          <t>A 57394-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45929.54851851852</v>
+        <v>45629.6907175926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1069,14 +1069,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4574-2025</t>
+          <t>A 46993-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45687</v>
+        <v>45929.54670138889</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1088,13 +1088,8 @@
           <t>BJUV</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1131,14 +1126,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53218-2023</t>
+          <t>A 46998-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45229</v>
+        <v>45929.54851851852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1151,7 +1146,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1188,14 +1183,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57391-2024</t>
+          <t>A 59471-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45629.68717592592</v>
+        <v>45638</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1245,14 +1240,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 26708-2023</t>
+          <t>A 20239-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45093</v>
+        <v>45772</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1265,7 +1260,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1302,14 +1297,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 6679-2026</t>
+          <t>A 18118-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46056.60961805555</v>
+        <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1322,7 +1317,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1359,14 +1354,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 6684-2026</t>
+          <t>A 57391-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46056.61989583333</v>
+        <v>45629.68717592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1379,7 +1374,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1416,14 +1411,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 59877-2025</t>
+          <t>A 53218-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45993</v>
+        <v>45229</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1436,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1473,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 14674-2024</t>
+          <t>A 54557-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45397</v>
+        <v>45233.6346875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1493,7 +1488,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1530,14 +1525,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 22256-2022</t>
+          <t>A 325-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44712</v>
+        <v>45295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1550,7 +1545,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>11.2</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1587,14 +1582,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 63548-2025</t>
+          <t>A 6679-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46013</v>
+        <v>46056.60961805555</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1607,7 +1602,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1644,14 +1639,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 20239-2025</t>
+          <t>A 6684-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45772</v>
+        <v>46056.61989583333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1664,7 +1659,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1701,14 +1696,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20054-2024</t>
+          <t>A 59877-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45434</v>
+        <v>45993</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1721,7 +1716,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1758,14 +1753,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 57394-2024</t>
+          <t>A 20054-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45629.6907175926</v>
+        <v>45434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1778,7 +1773,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1815,14 +1810,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 54557-2023</t>
+          <t>A 26708-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45233.6346875</v>
+        <v>45093</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1835,7 +1830,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1872,14 +1867,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 18118-2022</t>
+          <t>A 63548-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44684</v>
+        <v>46013</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1892,7 +1887,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1929,14 +1924,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 325-2024</t>
+          <t>A 14674-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45295</v>
+        <v>45397</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1949,7 +1944,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1986,14 +1981,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59471-2024</t>
+          <t>A 4574-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45638</v>
+        <v>45687</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,8 +2000,13 @@
           <t>BJUV</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
